--- a/Excel-XLSX/UN-MDV.xlsx
+++ b/Excel-XLSX/UN-MDV.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Kmk4r6</t>
+    <t>qWDzu5</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-MDV.xlsx
+++ b/Excel-XLSX/UN-MDV.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>qWDzu5</t>
+    <t>2NGo7y</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-MDV.xlsx
+++ b/Excel-XLSX/UN-MDV.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2NGo7y</t>
+    <t>MbW1Wv</t>
   </si>
   <si>
     <t>0</t>
